--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.013120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Spring.013120.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1525,12 +1525,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2159,12 +2159,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2289,12 +2289,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2545,12 +2545,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2671,12 +2671,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2965,12 +2965,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3095,12 +3095,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3137,12 +3137,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3305,12 +3305,12 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3431,12 +3431,12 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4191,12 +4191,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4695,12 +4695,12 @@
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4779,12 +4779,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5073,12 +5073,12 @@
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5199,12 +5199,12 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5283,12 +5283,12 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6123,12 +6123,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6417,12 +6417,12 @@
       <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6711,12 +6711,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6753,12 +6753,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6879,12 +6879,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8007,12 +8007,12 @@
       <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8049,12 +8049,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8725,12 +8725,12 @@
       <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9019,12 +9019,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9313,12 +9313,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9485,12 +9485,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10043,12 +10043,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10085,12 +10085,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10379,12 +10379,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10589,12 +10589,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10757,12 +10757,12 @@
       <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11303,12 +11303,12 @@
       <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11345,12 +11345,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11387,12 +11387,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11429,12 +11429,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12735,12 +12735,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12987,12 +12987,12 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13029,12 +13029,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13155,12 +13155,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13407,12 +13407,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -13491,12 +13491,12 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13659,12 +13659,12 @@
       <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14289,12 +14289,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15049,12 +15049,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -15259,12 +15259,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15469,12 +15469,12 @@
       </c>
       <c r="I357" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15679,12 +15679,12 @@
       <c r="H362" t="inlineStr"/>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16141,12 +16141,12 @@
       <c r="H373" t="inlineStr"/>
       <c r="I373" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J373" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16225,12 +16225,12 @@
       <c r="H375" t="inlineStr"/>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16267,12 +16267,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16481,12 +16481,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16607,12 +16607,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16985,12 +16985,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -17237,12 +17237,12 @@
       <c r="H399" t="inlineStr"/>
       <c r="I399" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17573,12 +17573,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18375,12 +18375,12 @@
       <c r="H426" t="inlineStr"/>
       <c r="I426" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18879,12 +18879,12 @@
       <c r="H438" t="inlineStr"/>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -19047,12 +19047,12 @@
       <c r="H442" t="inlineStr"/>
       <c r="I442" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J442" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19299,12 +19299,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19425,12 +19425,12 @@
       <c r="H451" t="inlineStr"/>
       <c r="I451" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19471,12 +19471,12 @@
       </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19765,12 +19765,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20147,12 +20147,12 @@
       <c r="H468" t="inlineStr"/>
       <c r="I468" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J468" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20273,12 +20273,12 @@
       <c r="H471" t="inlineStr"/>
       <c r="I471" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21289,12 +21289,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21499,12 +21499,12 @@
       <c r="H500" t="inlineStr"/>
       <c r="I500" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
